--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2752,28 +2752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.319958069951</v>
+        <v>146.234267333684</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.4682953575843</v>
+        <v>200.0841759664151</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.1036019059682</v>
+        <v>180.9884230321419</v>
       </c>
       <c r="AD2" t="n">
-        <v>125319.958069951</v>
+        <v>146234.267333684</v>
       </c>
       <c r="AE2" t="n">
-        <v>171468.2953575843</v>
+        <v>200084.1759664151</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.444970127793143e-06</v>
+        <v>7.514442543565976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.557291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>155103.6019059682</v>
+        <v>180988.4230321419</v>
       </c>
     </row>
     <row r="3">
@@ -2858,28 +2858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.64611149897111</v>
+        <v>88.06068521210284</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.2388352575295</v>
+        <v>120.4885144703945</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.09954992771961</v>
+        <v>108.9892597560637</v>
       </c>
       <c r="AD3" t="n">
-        <v>77646.11149897111</v>
+        <v>88060.68521210284</v>
       </c>
       <c r="AE3" t="n">
-        <v>106238.8352575295</v>
+        <v>120488.5144703945</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.63515054406292e-06</v>
+        <v>1.121705120570197e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.053385416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>96099.54992771961</v>
+        <v>108989.2597560637</v>
       </c>
     </row>
     <row r="4">
@@ -2964,28 +2964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.58236526504421</v>
+        <v>81.32599281963397</v>
       </c>
       <c r="AB4" t="n">
-        <v>82.89146486092854</v>
+        <v>111.2738112253641</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.98041979352263</v>
+        <v>100.6539948558188</v>
       </c>
       <c r="AD4" t="n">
-        <v>60582.36526504421</v>
+        <v>81325.99281963396</v>
       </c>
       <c r="AE4" t="n">
-        <v>82891.46486092854</v>
+        <v>111273.8112253641</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.406447347661036e-06</v>
+        <v>1.252096672100189e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.736545138888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>74980.41979352263</v>
+        <v>100653.9948558188</v>
       </c>
     </row>
     <row r="5">
@@ -3070,28 +3070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>57.51467888110659</v>
+        <v>68.01450394025889</v>
       </c>
       <c r="AB5" t="n">
-        <v>78.69412101365552</v>
+        <v>93.06044487916972</v>
       </c>
       <c r="AC5" t="n">
-        <v>71.18366455202293</v>
+        <v>84.17888663107921</v>
       </c>
       <c r="AD5" t="n">
-        <v>57514.67888110659</v>
+        <v>68014.50394025889</v>
       </c>
       <c r="AE5" t="n">
-        <v>78694.12101365552</v>
+        <v>93060.44487916972</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.801105571702829e-06</v>
+        <v>1.318815603018634e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.59765625</v>
       </c>
       <c r="AH5" t="n">
-        <v>71183.66455202294</v>
+        <v>84178.88663107921</v>
       </c>
     </row>
     <row r="6">
@@ -3176,28 +3176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>55.4739580032069</v>
+        <v>65.9737830623592</v>
       </c>
       <c r="AB6" t="n">
-        <v>75.90191667826346</v>
+        <v>90.26824054377765</v>
       </c>
       <c r="AC6" t="n">
-        <v>68.65794427951639</v>
+        <v>81.65316635857266</v>
       </c>
       <c r="AD6" t="n">
-        <v>55473.9580032069</v>
+        <v>65973.7830623592</v>
       </c>
       <c r="AE6" t="n">
-        <v>75901.91667826346</v>
+        <v>90268.24054377765</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.057488699977908e-06</v>
+        <v>1.362158442929221e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.515190972222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>68657.94427951639</v>
+        <v>81653.16635857266</v>
       </c>
     </row>
     <row r="7">
@@ -3282,28 +3282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>53.91162000937901</v>
+        <v>64.24085286793911</v>
       </c>
       <c r="AB7" t="n">
-        <v>73.76425690962142</v>
+        <v>87.89716900028876</v>
       </c>
       <c r="AC7" t="n">
-        <v>66.72429975896856</v>
+        <v>79.5083865553738</v>
       </c>
       <c r="AD7" t="n">
-        <v>53911.62000937901</v>
+        <v>64240.85286793912</v>
       </c>
       <c r="AE7" t="n">
-        <v>73764.25690962143</v>
+        <v>87897.16900028876</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.217611447607828e-06</v>
+        <v>1.389227987884304e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.465277777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>66724.29975896855</v>
+        <v>79508.3865553738</v>
       </c>
     </row>
     <row r="8">
@@ -3388,28 +3388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>52.93017028023461</v>
+        <v>63.25940313879471</v>
       </c>
       <c r="AB8" t="n">
-        <v>72.42139409170053</v>
+        <v>86.55430618236787</v>
       </c>
       <c r="AC8" t="n">
-        <v>65.5095978836698</v>
+        <v>78.29368468007505</v>
       </c>
       <c r="AD8" t="n">
-        <v>52930.17028023461</v>
+        <v>63259.40313879471</v>
       </c>
       <c r="AE8" t="n">
-        <v>72421.39409170054</v>
+        <v>86554.30618236787</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.332731767040882e-06</v>
+        <v>1.408689649067754e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.430555555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>65509.59788366981</v>
+        <v>78293.68468007505</v>
       </c>
     </row>
     <row r="9">
@@ -3494,28 +3494,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>53.03107067658738</v>
+        <v>63.36030353514748</v>
       </c>
       <c r="AB9" t="n">
-        <v>72.55945046540165</v>
+        <v>86.69236255606899</v>
       </c>
       <c r="AC9" t="n">
-        <v>65.63447835082827</v>
+        <v>78.41856514723351</v>
       </c>
       <c r="AD9" t="n">
-        <v>53031.07067658738</v>
+        <v>63360.30353514748</v>
       </c>
       <c r="AE9" t="n">
-        <v>72559.45046540165</v>
+        <v>86692.36255606898</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.328810393629539e-06</v>
+        <v>1.408026721436201e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.432725694444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>65634.47835082827</v>
+        <v>78418.5651472335</v>
       </c>
     </row>
   </sheetData>
@@ -3791,28 +3791,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.91251669431722</v>
+        <v>111.0936523820372</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.3905161182837</v>
+        <v>152.0032362950787</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.5188598431733</v>
+        <v>137.4962607609999</v>
       </c>
       <c r="AD2" t="n">
-        <v>90912.51669431722</v>
+        <v>111093.6523820372</v>
       </c>
       <c r="AE2" t="n">
-        <v>124390.5161182837</v>
+        <v>152003.2362950787</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.414989402466282e-06</v>
+        <v>9.377629952807361e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.871527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>112518.8598431733</v>
+        <v>137496.2607609999</v>
       </c>
     </row>
     <row r="3">
@@ -3897,28 +3897,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.53197223379215</v>
+        <v>78.62776706694052</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.08602665861449</v>
+        <v>107.5819797132118</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.44272867577928</v>
+        <v>97.31450656166706</v>
       </c>
       <c r="AD3" t="n">
-        <v>58531.97223379216</v>
+        <v>78627.76706694052</v>
       </c>
       <c r="AE3" t="n">
-        <v>80086.02665861449</v>
+        <v>107581.9797132118</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.450343135310387e-06</v>
+        <v>1.290243724439393e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>72442.72867577928</v>
+        <v>97314.50656166706</v>
       </c>
     </row>
     <row r="4">
@@ -4003,28 +4003,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>53.78004043813957</v>
+        <v>63.95594913657118</v>
       </c>
       <c r="AB4" t="n">
-        <v>73.58422393537072</v>
+        <v>87.5073511459658</v>
       </c>
       <c r="AC4" t="n">
-        <v>66.5614488791024</v>
+        <v>79.15577236995451</v>
       </c>
       <c r="AD4" t="n">
-        <v>53780.04043813956</v>
+        <v>63955.94913657119</v>
       </c>
       <c r="AE4" t="n">
-        <v>73584.22393537071</v>
+        <v>87507.3511459658</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.144988608029734e-06</v>
+        <v>1.410541802743814e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.573784722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>66561.44887910241</v>
+        <v>79155.7723699545</v>
       </c>
     </row>
     <row r="5">
@@ -4109,28 +4109,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>51.24402936988076</v>
+        <v>61.24934586772019</v>
       </c>
       <c r="AB5" t="n">
-        <v>70.1143417108686</v>
+        <v>83.80405714661681</v>
       </c>
       <c r="AC5" t="n">
-        <v>63.42272734409538</v>
+        <v>75.80591555229643</v>
       </c>
       <c r="AD5" t="n">
-        <v>51244.02936988077</v>
+        <v>61249.34586772019</v>
       </c>
       <c r="AE5" t="n">
-        <v>70114.3417108686</v>
+        <v>83804.05714661682</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.510179727655965e-06</v>
+        <v>1.473785272441953e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.463107638888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>63422.72734409538</v>
+        <v>75805.91555229643</v>
       </c>
     </row>
     <row r="6">
@@ -4215,28 +4215,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>49.96402248171054</v>
+        <v>59.96933897954995</v>
       </c>
       <c r="AB6" t="n">
-        <v>68.3629798165565</v>
+        <v>82.05269525230472</v>
       </c>
       <c r="AC6" t="n">
-        <v>61.83851297092403</v>
+        <v>74.22170117912506</v>
       </c>
       <c r="AD6" t="n">
-        <v>49964.02248171053</v>
+        <v>59969.33897954995</v>
       </c>
       <c r="AE6" t="n">
-        <v>68362.9798165565</v>
+        <v>82052.69525230472</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.651195076678526e-06</v>
+        <v>1.498206183777389e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.421875</v>
       </c>
       <c r="AH6" t="n">
-        <v>61838.51297092403</v>
+        <v>74221.70117912507</v>
       </c>
     </row>
     <row r="7">
@@ -4321,28 +4321,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>49.7856736342629</v>
+        <v>59.79099013210232</v>
       </c>
       <c r="AB7" t="n">
-        <v>68.11895505528292</v>
+        <v>81.80867049103115</v>
       </c>
       <c r="AC7" t="n">
-        <v>61.61777759037543</v>
+        <v>74.00096579857646</v>
       </c>
       <c r="AD7" t="n">
-        <v>49785.6736342629</v>
+        <v>59790.99013210232</v>
       </c>
       <c r="AE7" t="n">
-        <v>68118.95505528293</v>
+        <v>81808.67049103115</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.71513491301615e-06</v>
+        <v>1.509279227136333e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.404513888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>61617.77759037542</v>
+        <v>74000.96579857646</v>
       </c>
     </row>
   </sheetData>
@@ -4618,28 +4618,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.3348449833411</v>
+        <v>64.48023535419996</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.39737905527856</v>
+        <v>88.22470267880065</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.34682217703643</v>
+        <v>79.80466087930503</v>
       </c>
       <c r="AD2" t="n">
-        <v>46334.8449833411</v>
+        <v>64480.23535419997</v>
       </c>
       <c r="AE2" t="n">
-        <v>63397.37905527856</v>
+        <v>88224.70267880065</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.578733697295801e-06</v>
+        <v>1.623281021058204e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.725694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>57346.82217703643</v>
+        <v>79804.66087930503</v>
       </c>
     </row>
     <row r="3">
@@ -4724,28 +4724,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.45140027056888</v>
+        <v>51.48151453726354</v>
       </c>
       <c r="AB3" t="n">
-        <v>58.0838786737771</v>
+        <v>70.43927939398772</v>
       </c>
       <c r="AC3" t="n">
-        <v>52.54043481439914</v>
+        <v>63.71665343079061</v>
       </c>
       <c r="AD3" t="n">
-        <v>42451.40027056888</v>
+        <v>51481.51453726355</v>
       </c>
       <c r="AE3" t="n">
-        <v>58083.8786737771</v>
+        <v>70439.27939398772</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.47294904801395e-06</v>
+        <v>1.792485808009131e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.469618055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>52540.43481439914</v>
+        <v>63716.65343079061</v>
       </c>
     </row>
   </sheetData>
@@ -5021,28 +5021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.83092160298017</v>
+        <v>75.32764189050356</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.07277119245258</v>
+        <v>103.0666028555655</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.47635232779506</v>
+        <v>93.2300709339419</v>
       </c>
       <c r="AD2" t="n">
-        <v>65830.92160298018</v>
+        <v>75327.64189050355</v>
       </c>
       <c r="AE2" t="n">
-        <v>90072.77119245258</v>
+        <v>103066.6028555655</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.28637209303317e-06</v>
+        <v>1.32741875372496e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.070746527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>81476.35232779506</v>
+        <v>93230.0709339419</v>
       </c>
     </row>
     <row r="3">
@@ -5127,28 +5127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.52977988300648</v>
+        <v>55.94115931595824</v>
       </c>
       <c r="AB3" t="n">
-        <v>63.66409758492143</v>
+        <v>76.54116212583675</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.58808546455207</v>
+        <v>69.23618103876011</v>
       </c>
       <c r="AD3" t="n">
-        <v>46529.77988300649</v>
+        <v>55941.15931595824</v>
       </c>
       <c r="AE3" t="n">
-        <v>63664.09758492143</v>
+        <v>76541.16212583675</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.966169092278896e-06</v>
+        <v>1.633441286033143e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.495659722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>57588.08546455207</v>
+        <v>69236.18103876011</v>
       </c>
     </row>
     <row r="4">
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>44.9441574004303</v>
+        <v>54.35553683338205</v>
       </c>
       <c r="AB4" t="n">
-        <v>61.49457895153486</v>
+        <v>74.37164349245018</v>
       </c>
       <c r="AC4" t="n">
-        <v>55.6256226445967</v>
+        <v>67.27371821880475</v>
       </c>
       <c r="AD4" t="n">
-        <v>44944.1574004303</v>
+        <v>54355.53683338205</v>
       </c>
       <c r="AE4" t="n">
-        <v>61494.57895153486</v>
+        <v>74371.64349245018</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.290642524431259e-06</v>
+        <v>1.692553298626677e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.408854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>55625.6226445967</v>
+        <v>67273.71821880474</v>
       </c>
     </row>
   </sheetData>
@@ -5530,28 +5530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.39622987502621</v>
+        <v>49.28422069666824</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.27190387072405</v>
+        <v>67.43284502352398</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.99683094001388</v>
+        <v>60.99714893708585</v>
       </c>
       <c r="AD2" t="n">
-        <v>40396.22987502621</v>
+        <v>49284.22069666824</v>
       </c>
       <c r="AE2" t="n">
-        <v>55271.90387072405</v>
+        <v>67432.84502352399</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.551791231317767e-06</v>
+        <v>1.871843322178101e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.543402777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>49996.83094001388</v>
+        <v>60997.14893708585</v>
       </c>
     </row>
     <row r="3">
@@ -5636,28 +5636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>40.47012464932784</v>
+        <v>49.35811547096988</v>
       </c>
       <c r="AB3" t="n">
-        <v>55.37300996093042</v>
+        <v>67.53395111373079</v>
       </c>
       <c r="AC3" t="n">
-        <v>50.08828760687454</v>
+        <v>61.08860560394664</v>
       </c>
       <c r="AD3" t="n">
-        <v>40470.12464932784</v>
+        <v>49358.11547096987</v>
       </c>
       <c r="AE3" t="n">
-        <v>55373.00996093042</v>
+        <v>67533.9511137308</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.566342674588576e-06</v>
+        <v>1.874694936210997e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.5390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>50088.28760687454</v>
+        <v>61088.60560394664</v>
       </c>
     </row>
   </sheetData>
@@ -5933,28 +5933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.7301781231227</v>
+        <v>126.996339757134</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.0329383111367</v>
+        <v>173.7619947387273</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.0957596372776</v>
+        <v>157.1783938374029</v>
       </c>
       <c r="AD2" t="n">
-        <v>106730.1781231227</v>
+        <v>126996.339757134</v>
       </c>
       <c r="AE2" t="n">
-        <v>146032.9383111366</v>
+        <v>173761.9947387273</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.14274915197101e-06</v>
+        <v>8.848003269769161e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.038628472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>132095.7596372775</v>
+        <v>157178.3938374029</v>
       </c>
     </row>
     <row r="3">
@@ -6039,28 +6039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.61060085979682</v>
+        <v>80.87667298525709</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.93009804733555</v>
+        <v>110.6590320053779</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.015365882841</v>
+        <v>100.0978893017398</v>
       </c>
       <c r="AD3" t="n">
-        <v>60610.60085979682</v>
+        <v>80876.67298525709</v>
       </c>
       <c r="AE3" t="n">
-        <v>82930.09804733554</v>
+        <v>110659.0320053779</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.232852459044397e-06</v>
+        <v>1.244398673088217e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.87109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>75015.365882841</v>
+        <v>100097.8893017398</v>
       </c>
     </row>
     <row r="4">
@@ -6145,28 +6145,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.70837401083359</v>
+        <v>65.96942135542116</v>
       </c>
       <c r="AB4" t="n">
-        <v>76.22265500160249</v>
+        <v>90.26227266392007</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.94807178743513</v>
+        <v>81.64776804479273</v>
       </c>
       <c r="AD4" t="n">
-        <v>55708.37401083358</v>
+        <v>65969.42135542116</v>
       </c>
       <c r="AE4" t="n">
-        <v>76222.65500160248</v>
+        <v>90262.27266392007</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.911686158154329e-06</v>
+        <v>1.361190735307549e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.625868055555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>68948.07178743512</v>
+        <v>81647.76804479273</v>
       </c>
     </row>
     <row r="5">
@@ -6251,28 +6251,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>52.94584392454653</v>
+        <v>63.03629906854189</v>
       </c>
       <c r="AB5" t="n">
-        <v>72.44283946332047</v>
+        <v>86.24904535079121</v>
       </c>
       <c r="AC5" t="n">
-        <v>65.52899653912112</v>
+        <v>78.0175575138277</v>
       </c>
       <c r="AD5" t="n">
-        <v>52945.84392454653</v>
+        <v>63036.29906854189</v>
       </c>
       <c r="AE5" t="n">
-        <v>72442.83946332047</v>
+        <v>86249.0453507912</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.318488642815525e-06</v>
+        <v>1.431180338301368e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.497829861111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>65528.99653912112</v>
+        <v>78017.55751382769</v>
       </c>
     </row>
     <row r="6">
@@ -6357,28 +6357,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>50.71368369186634</v>
+        <v>60.80413883586171</v>
       </c>
       <c r="AB6" t="n">
-        <v>69.38869935700961</v>
+        <v>83.19490524448032</v>
       </c>
       <c r="AC6" t="n">
-        <v>62.76633927804303</v>
+        <v>75.25490025274959</v>
       </c>
       <c r="AD6" t="n">
-        <v>50713.68369186635</v>
+        <v>60804.13883586171</v>
       </c>
       <c r="AE6" t="n">
-        <v>69388.69935700961</v>
+        <v>83194.90524448032</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.58994554787415e-06</v>
+        <v>1.477883988675596e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.417534722222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>62766.33927804303</v>
+        <v>75254.90025274959</v>
       </c>
     </row>
     <row r="7">
@@ -6463,28 +6463,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>50.75324950208438</v>
+        <v>60.84370464607974</v>
       </c>
       <c r="AB7" t="n">
-        <v>69.44283504407024</v>
+        <v>83.24904093154096</v>
       </c>
       <c r="AC7" t="n">
-        <v>62.81530833111053</v>
+        <v>75.30386930581709</v>
       </c>
       <c r="AD7" t="n">
-        <v>50753.24950208438</v>
+        <v>60843.70464607974</v>
       </c>
       <c r="AE7" t="n">
-        <v>69442.83504407023</v>
+        <v>83249.04093154096</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.568791818671769e-06</v>
+        <v>1.474244529319917e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.424045138888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>62815.30833111053</v>
+        <v>75303.86930581709</v>
       </c>
     </row>
   </sheetData>
@@ -6760,28 +6760,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.30783733732351</v>
+        <v>48.01065367481932</v>
       </c>
       <c r="AB2" t="n">
-        <v>53.7827171841565</v>
+        <v>65.69029443841957</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.64977014072126</v>
+        <v>59.42090493413814</v>
       </c>
       <c r="AD2" t="n">
-        <v>39307.83733732352</v>
+        <v>48010.65367481932</v>
       </c>
       <c r="AE2" t="n">
-        <v>53782.7171841565</v>
+        <v>65690.29443841957</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.488178110795591e-06</v>
+        <v>1.902057470489354e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.619357638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>48649.77014072126</v>
+        <v>59420.90493413814</v>
       </c>
     </row>
   </sheetData>
@@ -7057,28 +7057,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.16245834177391</v>
+        <v>96.62036962981135</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.5770796705813</v>
+        <v>132.2002523173224</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.50095136520972</v>
+        <v>119.5832457804118</v>
       </c>
       <c r="AD2" t="n">
-        <v>77162.45834177392</v>
+        <v>96620.36962981135</v>
       </c>
       <c r="AE2" t="n">
-        <v>105577.0796705813</v>
+        <v>132200.2523173224</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.277004236270077e-06</v>
+        <v>1.111704092715959e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.439670138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>95500.95136520971</v>
+        <v>119583.2457804118</v>
       </c>
     </row>
     <row r="3">
@@ -7163,28 +7163,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.71933382216794</v>
+        <v>72.26249645622596</v>
       </c>
       <c r="AB3" t="n">
-        <v>72.13291834832579</v>
+        <v>98.87273564771611</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.24865386036441</v>
+        <v>89.43646052627871</v>
       </c>
       <c r="AD3" t="n">
-        <v>52719.33382216794</v>
+        <v>72262.49645622596</v>
       </c>
       <c r="AE3" t="n">
-        <v>72132.91834832579</v>
+        <v>98872.73564771611</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.11322476304934e-06</v>
+        <v>1.436912392394049e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.662760416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>65248.65386036441</v>
+        <v>89436.46052627871</v>
       </c>
     </row>
     <row r="4">
@@ -7269,28 +7269,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>48.77431761432832</v>
+        <v>58.50331801262256</v>
       </c>
       <c r="AB4" t="n">
-        <v>66.73517313093051</v>
+        <v>80.04682068907523</v>
       </c>
       <c r="AC4" t="n">
-        <v>60.36606187073262</v>
+        <v>72.40726446894693</v>
       </c>
       <c r="AD4" t="n">
-        <v>48774.31761432832</v>
+        <v>58503.31801262256</v>
       </c>
       <c r="AE4" t="n">
-        <v>66735.1731309305</v>
+        <v>80046.82068907523</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.780561358138312e-06</v>
+        <v>1.555102662155661e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.458767361111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>60366.06187073262</v>
+        <v>72407.26446894693</v>
       </c>
     </row>
     <row r="5">
@@ -7375,28 +7375,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>47.47148702461048</v>
+        <v>57.20048742290472</v>
       </c>
       <c r="AB5" t="n">
-        <v>64.95258284125035</v>
+        <v>78.26423039939507</v>
       </c>
       <c r="AC5" t="n">
-        <v>58.75359949641778</v>
+        <v>70.7948020946321</v>
       </c>
       <c r="AD5" t="n">
-        <v>47471.48702461048</v>
+        <v>57200.48742290472</v>
       </c>
       <c r="AE5" t="n">
-        <v>64952.58284125035</v>
+        <v>78264.23039939508</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.979090512209667e-06</v>
+        <v>1.590263650550295e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.404513888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>58753.59949641779</v>
+        <v>70794.8020946321</v>
       </c>
     </row>
   </sheetData>
@@ -7672,28 +7672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.16792000796218</v>
+        <v>106.1723033956132</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.8987496151831</v>
+        <v>145.2696294972626</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.646658423875</v>
+        <v>131.4052999452887</v>
       </c>
       <c r="AD2" t="n">
-        <v>86167.92000796218</v>
+        <v>106172.3033956132</v>
       </c>
       <c r="AE2" t="n">
-        <v>117898.7496151831</v>
+        <v>145269.6294972626</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.677517748886553e-06</v>
+        <v>9.901095197725586e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.726128472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>106646.658423875</v>
+        <v>131405.2999452887</v>
       </c>
     </row>
     <row r="3">
@@ -7778,28 +7778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.60231239515128</v>
+        <v>76.52135492823068</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.44578093680349</v>
+        <v>104.6998936966854</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.05446430004895</v>
+        <v>94.70748278952391</v>
       </c>
       <c r="AD3" t="n">
-        <v>56602.31239515128</v>
+        <v>76521.35492823068</v>
       </c>
       <c r="AE3" t="n">
-        <v>77445.78093680349</v>
+        <v>104699.8936966854</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.659954178678605e-06</v>
+        <v>1.335829122651119e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.762586805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>70054.46430004895</v>
+        <v>94707.48278952391</v>
       </c>
     </row>
     <row r="4">
@@ -7884,28 +7884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>52.20116656352424</v>
+        <v>62.28869911192136</v>
       </c>
       <c r="AB4" t="n">
-        <v>71.42393904512376</v>
+        <v>85.22614610836116</v>
       </c>
       <c r="AC4" t="n">
-        <v>64.60733854680106</v>
+        <v>77.09228233944674</v>
       </c>
       <c r="AD4" t="n">
-        <v>52201.16656352424</v>
+        <v>62288.69911192136</v>
       </c>
       <c r="AE4" t="n">
-        <v>71423.93904512376</v>
+        <v>85226.14610836116</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.341112003709459e-06</v>
+        <v>1.454617099520567e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.536892361111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>64607.33854680105</v>
+        <v>77092.28233944674</v>
       </c>
     </row>
     <row r="5">
@@ -7990,28 +7990,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>49.6529694857994</v>
+        <v>59.56990983360433</v>
       </c>
       <c r="AB5" t="n">
-        <v>67.93738338486142</v>
+        <v>81.50617867325194</v>
       </c>
       <c r="AC5" t="n">
-        <v>61.45353486534142</v>
+        <v>73.72734337533608</v>
       </c>
       <c r="AD5" t="n">
-        <v>49652.9694857994</v>
+        <v>59569.90983360432</v>
       </c>
       <c r="AE5" t="n">
-        <v>67937.38338486142</v>
+        <v>81506.17867325194</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.6974864455199e-06</v>
+        <v>1.516765690339037e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.432725694444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>61453.53486534143</v>
+        <v>73727.34337533607</v>
       </c>
     </row>
     <row r="6">
@@ -8096,28 +8096,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>49.12766240226472</v>
+        <v>59.04460275006964</v>
       </c>
       <c r="AB6" t="n">
-        <v>67.21863505825669</v>
+        <v>80.78743034664723</v>
       </c>
       <c r="AC6" t="n">
-        <v>60.80338287025802</v>
+        <v>73.07719138025267</v>
       </c>
       <c r="AD6" t="n">
-        <v>49127.66240226472</v>
+        <v>59044.60275006964</v>
       </c>
       <c r="AE6" t="n">
-        <v>67218.6350582567</v>
+        <v>80787.43034664723</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.782996810900957e-06</v>
+        <v>1.531677951391786e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.408854166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>60803.38287025802</v>
+        <v>73077.19138025267</v>
       </c>
     </row>
   </sheetData>
@@ -8393,28 +8393,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.7619253743537</v>
+        <v>139.3515246760315</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.4953057034892</v>
+        <v>190.6669038170439</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.986981790787</v>
+        <v>172.4699221194792</v>
       </c>
       <c r="AD2" t="n">
-        <v>118761.9253743537</v>
+        <v>139351.5246760315</v>
       </c>
       <c r="AE2" t="n">
-        <v>162495.3057034892</v>
+        <v>190666.9038170439</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.662140320137985e-06</v>
+        <v>7.925329554456867e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.381510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>146986.981790787</v>
+        <v>172469.9221194792</v>
       </c>
     </row>
     <row r="3">
@@ -8499,28 +8499,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.88485692056581</v>
+        <v>85.47436671369263</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.77832375654579</v>
+        <v>116.9497994005521</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.3054451384024</v>
+        <v>105.7882746858681</v>
       </c>
       <c r="AD3" t="n">
-        <v>64884.85692056581</v>
+        <v>85474.36671369264</v>
       </c>
       <c r="AE3" t="n">
-        <v>88778.32375654578</v>
+        <v>116949.7994005521</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.829737232678218e-06</v>
+        <v>1.161010064530128e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.990451388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>80305.4451384024</v>
+        <v>105788.2746858681</v>
       </c>
     </row>
     <row r="4">
@@ -8605,28 +8605,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.80153993520074</v>
+        <v>79.39104972832754</v>
       </c>
       <c r="AB4" t="n">
-        <v>80.45486108016917</v>
+        <v>108.6263367241755</v>
       </c>
       <c r="AC4" t="n">
-        <v>72.77636205780328</v>
+        <v>98.25919160526898</v>
       </c>
       <c r="AD4" t="n">
-        <v>58801.53993520074</v>
+        <v>79391.04972832755</v>
       </c>
       <c r="AE4" t="n">
-        <v>80454.86108016917</v>
+        <v>108626.3367241755</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.586306856675741e-06</v>
+        <v>1.289621886340211e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.693142361111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>72776.36205780329</v>
+        <v>98259.19160526898</v>
       </c>
     </row>
     <row r="5">
@@ -8711,28 +8711,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>56.05717662925937</v>
+        <v>66.4799428076802</v>
       </c>
       <c r="AB5" t="n">
-        <v>76.69990213221789</v>
+        <v>90.96079063751746</v>
       </c>
       <c r="AC5" t="n">
-        <v>69.3797711217253</v>
+        <v>82.27962044336635</v>
       </c>
       <c r="AD5" t="n">
-        <v>56057.17662925937</v>
+        <v>66479.9428076802</v>
       </c>
       <c r="AE5" t="n">
-        <v>76699.90213221789</v>
+        <v>90960.79063751746</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.960121329435805e-06</v>
+        <v>1.353167869202463e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.565104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>69379.77112172529</v>
+        <v>82279.62044336635</v>
       </c>
     </row>
     <row r="6">
@@ -8817,28 +8817,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>54.0113980372485</v>
+        <v>64.26357201507713</v>
       </c>
       <c r="AB6" t="n">
-        <v>73.90077760924832</v>
+        <v>87.92825433970103</v>
       </c>
       <c r="AC6" t="n">
-        <v>66.84779111463111</v>
+        <v>79.53650515362111</v>
       </c>
       <c r="AD6" t="n">
-        <v>54011.39803724849</v>
+        <v>64263.57201507714</v>
       </c>
       <c r="AE6" t="n">
-        <v>73900.77760924833</v>
+        <v>87928.25433970103</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.222977276671167e-06</v>
+        <v>1.397851638118443e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.482638888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>66847.79111463111</v>
+        <v>79536.50515362111</v>
       </c>
     </row>
     <row r="7">
@@ -8923,28 +8923,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>52.42588342500605</v>
+        <v>62.67805740283469</v>
       </c>
       <c r="AB7" t="n">
-        <v>71.73140656881128</v>
+        <v>85.75888329926399</v>
       </c>
       <c r="AC7" t="n">
-        <v>64.88546180156131</v>
+        <v>77.57417584055131</v>
       </c>
       <c r="AD7" t="n">
-        <v>52425.88342500605</v>
+        <v>62678.05740283469</v>
       </c>
       <c r="AE7" t="n">
-        <v>71731.40656881128</v>
+        <v>85758.88329926398</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.390403245210987e-06</v>
+        <v>1.426312943131521e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.434895833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>64885.46180156131</v>
+        <v>77574.17584055131</v>
       </c>
     </row>
     <row r="8">
@@ -9029,28 +9029,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>52.07853421687556</v>
+        <v>62.33070819470419</v>
       </c>
       <c r="AB8" t="n">
-        <v>71.25614805828182</v>
+        <v>85.28362478873454</v>
       </c>
       <c r="AC8" t="n">
-        <v>64.45556129624714</v>
+        <v>77.14427533523713</v>
       </c>
       <c r="AD8" t="n">
-        <v>52078.53421687556</v>
+        <v>62330.7081947042</v>
       </c>
       <c r="AE8" t="n">
-        <v>71256.14805828182</v>
+        <v>85283.62478873454</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.435953649243178e-06</v>
+        <v>1.434056209925411e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.421875</v>
       </c>
       <c r="AH8" t="n">
-        <v>64455.56129624714</v>
+        <v>77144.27533523712</v>
       </c>
     </row>
   </sheetData>
@@ -9326,28 +9326,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.83321321015232</v>
+        <v>79.44144907985721</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.54888313802687</v>
+        <v>108.6952953404007</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.42983183505683</v>
+        <v>98.32156890794576</v>
       </c>
       <c r="AD2" t="n">
-        <v>69833.21321015232</v>
+        <v>79441.44907985721</v>
       </c>
       <c r="AE2" t="n">
-        <v>95548.88313802687</v>
+        <v>108695.2953404007</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.881487504083748e-06</v>
+        <v>1.240895040467006e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.211805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>86429.83183505683</v>
+        <v>98321.56890794577</v>
       </c>
     </row>
     <row r="3">
@@ -9432,28 +9432,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.51746896632864</v>
+        <v>58.21095618205413</v>
       </c>
       <c r="AB3" t="n">
-        <v>66.3837414793749</v>
+        <v>79.64679833439804</v>
       </c>
       <c r="AC3" t="n">
-        <v>60.04817036276394</v>
+        <v>72.04541968636512</v>
       </c>
       <c r="AD3" t="n">
-        <v>48517.46896632864</v>
+        <v>58210.95618205413</v>
       </c>
       <c r="AE3" t="n">
-        <v>66383.7414793749</v>
+        <v>79646.79833439804</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.691253148652145e-06</v>
+        <v>1.567238612466488e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.541232638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>60048.17036276394</v>
+        <v>72045.41968636512</v>
       </c>
     </row>
     <row r="4">
@@ -9538,28 +9538,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>45.87678467171956</v>
+        <v>55.39967968685285</v>
       </c>
       <c r="AB4" t="n">
-        <v>62.77064072872356</v>
+        <v>75.80028580889984</v>
       </c>
       <c r="AC4" t="n">
-        <v>56.77989887673487</v>
+        <v>68.566012917685</v>
       </c>
       <c r="AD4" t="n">
-        <v>45876.78467171956</v>
+        <v>55399.67968685285</v>
       </c>
       <c r="AE4" t="n">
-        <v>62770.64072872356</v>
+        <v>75800.28580889985</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.159705004104137e-06</v>
+        <v>1.651711567446495e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.413194444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>56779.89887673487</v>
+        <v>68566.012917685</v>
       </c>
     </row>
     <row r="5">
@@ -9644,28 +9644,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>45.93790619768998</v>
+        <v>55.46080121282326</v>
       </c>
       <c r="AB5" t="n">
-        <v>62.85426989704766</v>
+        <v>75.88391497722395</v>
       </c>
       <c r="AC5" t="n">
-        <v>56.85554659460841</v>
+        <v>68.64166063555854</v>
       </c>
       <c r="AD5" t="n">
-        <v>45937.90619768998</v>
+        <v>55460.80121282327</v>
       </c>
       <c r="AE5" t="n">
-        <v>62854.26989704766</v>
+        <v>75883.91497722395</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.16479576541094e-06</v>
+        <v>1.652629552177858e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.411024305555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>56855.54659460842</v>
+        <v>68641.66063555854</v>
       </c>
     </row>
   </sheetData>
@@ -9941,28 +9941,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.53751004711931</v>
+        <v>67.95561019149993</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.77940668714847</v>
+        <v>92.97986385390891</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.31063524193645</v>
+        <v>84.10599614577309</v>
       </c>
       <c r="AD2" t="n">
-        <v>49537.51004711931</v>
+        <v>67955.61019149993</v>
       </c>
       <c r="AE2" t="n">
-        <v>67779.40668714847</v>
+        <v>92979.86385390892</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.102173093387201e-06</v>
+        <v>1.511606519147009e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.840711805555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>61310.63524193646</v>
+        <v>84105.9961457731</v>
       </c>
     </row>
     <row r="3">
@@ -10047,28 +10047,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.21409906873215</v>
+        <v>52.38056822218769</v>
       </c>
       <c r="AB3" t="n">
-        <v>59.1274368173198</v>
+        <v>71.66940430914958</v>
       </c>
       <c r="AC3" t="n">
-        <v>53.48439723336551</v>
+        <v>64.82937695054099</v>
       </c>
       <c r="AD3" t="n">
-        <v>43214.09906873215</v>
+        <v>52380.56822218769</v>
       </c>
       <c r="AE3" t="n">
-        <v>59127.43681731979</v>
+        <v>71669.40430914958</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.450166653312735e-06</v>
+        <v>1.763099029793898e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.434895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>53484.3972333655</v>
+        <v>64829.37695054099</v>
       </c>
     </row>
   </sheetData>
@@ -17773,28 +17773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.10066800103993</v>
+        <v>52.15283150210413</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.97223542627786</v>
+        <v>71.3578048816964</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.34400804525804</v>
+        <v>64.54751613511129</v>
       </c>
       <c r="AD2" t="n">
-        <v>43100.66800103993</v>
+        <v>52152.83150210413</v>
       </c>
       <c r="AE2" t="n">
-        <v>58972.23542627785</v>
+        <v>71357.8048816964</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.101363730179e-06</v>
+        <v>1.750225996453684e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.615017361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>53344.00804525804</v>
+        <v>64547.51613511129</v>
       </c>
     </row>
     <row r="3">
@@ -17879,28 +17879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.50642530502021</v>
+        <v>50.38799660549559</v>
       </c>
       <c r="AB3" t="n">
-        <v>56.79092223640015</v>
+        <v>68.94307991713717</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.37087632483003</v>
+        <v>62.36324913208105</v>
       </c>
       <c r="AD3" t="n">
-        <v>41506.42530502021</v>
+        <v>50387.99660549559</v>
       </c>
       <c r="AE3" t="n">
-        <v>56790.92223640015</v>
+        <v>68943.07991713716</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.544050937422176e-06</v>
+        <v>1.835356388050422e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.495659722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>51370.87632483003</v>
+        <v>62363.24913208105</v>
       </c>
     </row>
   </sheetData>
@@ -18176,28 +18176,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.32874697647681</v>
+        <v>55.04753962211311</v>
       </c>
       <c r="AB2" t="n">
-        <v>52.44308255803432</v>
+        <v>75.31847223699995</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.43798836312319</v>
+        <v>68.1301829568575</v>
       </c>
       <c r="AD2" t="n">
-        <v>38328.74697647682</v>
+        <v>55047.53962211311</v>
       </c>
       <c r="AE2" t="n">
-        <v>52443.08255803432</v>
+        <v>75318.47223699995</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.199315603988215e-06</v>
+        <v>1.897450212178778e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>47437.98836312319</v>
+        <v>68130.18295685749</v>
       </c>
     </row>
   </sheetData>
@@ -18473,28 +18473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.67406408632952</v>
+        <v>101.494516026704</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.7500576882772</v>
+        <v>138.8692744497104</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.0847890247278</v>
+        <v>125.6157858005182</v>
       </c>
       <c r="AD2" t="n">
-        <v>81674.06408632953</v>
+        <v>101494.516026704</v>
       </c>
       <c r="AE2" t="n">
-        <v>111750.0576882772</v>
+        <v>138869.2744497104</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.955866601956925e-06</v>
+        <v>1.046422267394834e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.587239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>101084.7890247278</v>
+        <v>125615.7858005182</v>
       </c>
     </row>
     <row r="3">
@@ -18579,28 +18579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.54890750120252</v>
+        <v>74.28401858700541</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.63622177107379</v>
+        <v>101.6386714103094</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.51304551785456</v>
+        <v>91.93841926170616</v>
       </c>
       <c r="AD3" t="n">
-        <v>54548.90750120252</v>
+        <v>74284.01858700541</v>
       </c>
       <c r="AE3" t="n">
-        <v>74636.22177107379</v>
+        <v>101638.6714103094</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.896545555739417e-06</v>
+        <v>1.387391904027605e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.706163194444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>67513.04551785457</v>
+        <v>91938.41926170616</v>
       </c>
     </row>
     <row r="4">
@@ -18685,28 +18685,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>50.60324420577614</v>
+        <v>60.598811030535</v>
       </c>
       <c r="AB4" t="n">
-        <v>69.23759117989479</v>
+        <v>82.913966682809</v>
       </c>
       <c r="AC4" t="n">
-        <v>62.62965265327034</v>
+        <v>75.00077407310434</v>
       </c>
       <c r="AD4" t="n">
-        <v>50603.24420577614</v>
+        <v>60598.81103053501</v>
       </c>
       <c r="AE4" t="n">
-        <v>69237.59117989479</v>
+        <v>82913.966682809</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.525318840354083e-06</v>
+        <v>1.49786488976365e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.506510416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>62629.65265327034</v>
+        <v>75000.77407310435</v>
       </c>
     </row>
     <row r="5">
@@ -18791,28 +18791,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>48.23695141778241</v>
+        <v>58.06192604194909</v>
       </c>
       <c r="AB5" t="n">
-        <v>65.99992499389332</v>
+        <v>79.44288872196068</v>
       </c>
       <c r="AC5" t="n">
-        <v>59.7009847839668</v>
+        <v>71.86097092114976</v>
       </c>
       <c r="AD5" t="n">
-        <v>48236.95141778241</v>
+        <v>58061.92604194909</v>
       </c>
       <c r="AE5" t="n">
-        <v>65999.92499389332</v>
+        <v>79442.88872196068</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.894507727436366e-06</v>
+        <v>1.562729920855966e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.40234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>59700.98478396679</v>
+        <v>71860.97092114975</v>
       </c>
     </row>
     <row r="6">
@@ -18897,28 +18897,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>48.36956983045496</v>
+        <v>58.19454445462164</v>
       </c>
       <c r="AB6" t="n">
-        <v>66.18137935682326</v>
+        <v>79.62434308489061</v>
       </c>
       <c r="AC6" t="n">
-        <v>59.86512139717155</v>
+        <v>72.0251075343545</v>
       </c>
       <c r="AD6" t="n">
-        <v>48369.56983045496</v>
+        <v>58194.54445462164</v>
       </c>
       <c r="AE6" t="n">
-        <v>66181.37935682325</v>
+        <v>79624.34308489061</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.877569747020748e-06</v>
+        <v>1.559753984513507e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.406684027777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>59865.12139717155</v>
+        <v>72025.10753435451</v>
       </c>
     </row>
   </sheetData>
@@ -19194,28 +19194,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.4361168736846</v>
+        <v>132.8666790724949</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.8400554379032</v>
+        <v>181.7940519710927</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.1577764628257</v>
+        <v>164.443882800577</v>
       </c>
       <c r="AD2" t="n">
-        <v>112436.1168736846</v>
+        <v>132866.6790724949</v>
       </c>
       <c r="AE2" t="n">
-        <v>153840.0554379032</v>
+        <v>181794.0519710927</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.898585876555931e-06</v>
+        <v>8.376035938765889e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.203559027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>139157.7764628257</v>
+        <v>164443.882800577</v>
       </c>
     </row>
     <row r="3">
@@ -19300,28 +19300,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.75153891548008</v>
+        <v>83.18201160573931</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.85942394664089</v>
+        <v>113.813298010282</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.6651210296523</v>
+        <v>102.9511165861771</v>
       </c>
       <c r="AD3" t="n">
-        <v>62751.53891548007</v>
+        <v>83182.0116057393</v>
       </c>
       <c r="AE3" t="n">
-        <v>85859.42394664089</v>
+        <v>113813.298010282</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.025662113416922e-06</v>
+        <v>1.201309925732689e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.931857638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>77665.12102965229</v>
+        <v>102951.1165861771</v>
       </c>
     </row>
     <row r="4">
@@ -19406,28 +19406,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.13559373152853</v>
+        <v>77.56606642178775</v>
       </c>
       <c r="AB4" t="n">
-        <v>78.1754399879466</v>
+        <v>106.1293140515877</v>
       </c>
       <c r="AC4" t="n">
-        <v>70.71448571543414</v>
+        <v>96.0004812719589</v>
       </c>
       <c r="AD4" t="n">
-        <v>57135.59373152853</v>
+        <v>77566.06642178775</v>
       </c>
       <c r="AE4" t="n">
-        <v>78175.43998794661</v>
+        <v>106129.3140515877</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.752369667371036e-06</v>
+        <v>1.325568818855777e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.65625</v>
       </c>
       <c r="AH4" t="n">
-        <v>70714.48571543413</v>
+        <v>96000.48127195891</v>
       </c>
     </row>
     <row r="5">
@@ -19512,28 +19512,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>54.37373372920734</v>
+        <v>64.7169813561944</v>
       </c>
       <c r="AB5" t="n">
-        <v>74.39654128810871</v>
+        <v>88.54862900322571</v>
       </c>
       <c r="AC5" t="n">
-        <v>67.29623980378992</v>
+        <v>80.09767212996051</v>
       </c>
       <c r="AD5" t="n">
-        <v>54373.73372920734</v>
+        <v>64716.98135619439</v>
       </c>
       <c r="AE5" t="n">
-        <v>74396.54128810871</v>
+        <v>88548.62900322571</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.13811871501056e-06</v>
+        <v>1.391527607122342e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.530381944444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>67296.23980378991</v>
+        <v>80097.67212996051</v>
       </c>
     </row>
     <row r="6">
@@ -19618,28 +19618,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>52.34114483628928</v>
+        <v>62.51380026268414</v>
       </c>
       <c r="AB6" t="n">
-        <v>71.61546349332636</v>
+        <v>85.53413943359651</v>
       </c>
       <c r="AC6" t="n">
-        <v>64.78058417047352</v>
+        <v>77.37088121399307</v>
       </c>
       <c r="AD6" t="n">
-        <v>52341.14483628928</v>
+        <v>62513.80026268413</v>
       </c>
       <c r="AE6" t="n">
-        <v>71615.46349332636</v>
+        <v>85534.1394335965</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.410183295473664e-06</v>
+        <v>1.438047618428674e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.447916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>64780.58417047352</v>
+        <v>77370.88121399307</v>
       </c>
     </row>
     <row r="7">
@@ -19724,28 +19724,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>51.41226157031696</v>
+        <v>61.5849169967118</v>
       </c>
       <c r="AB7" t="n">
-        <v>70.34452442938615</v>
+        <v>84.2632003696563</v>
       </c>
       <c r="AC7" t="n">
-        <v>63.63094174702118</v>
+        <v>76.22123879054074</v>
       </c>
       <c r="AD7" t="n">
-        <v>51412.26157031696</v>
+        <v>61584.91699671181</v>
       </c>
       <c r="AE7" t="n">
-        <v>70344.52442938616</v>
+        <v>84263.2003696563</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.504604034071774e-06</v>
+        <v>1.454192512481621e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.421875</v>
       </c>
       <c r="AH7" t="n">
-        <v>63630.94174702118</v>
+        <v>76221.23879054074</v>
       </c>
     </row>
     <row r="8">
@@ -19830,28 +19830,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>51.54689591439369</v>
+        <v>61.71955134078854</v>
       </c>
       <c r="AB8" t="n">
-        <v>70.5287370785999</v>
+        <v>84.44741301887005</v>
       </c>
       <c r="AC8" t="n">
-        <v>63.79757339953811</v>
+        <v>76.38787044305766</v>
       </c>
       <c r="AD8" t="n">
-        <v>51546.8959143937</v>
+        <v>61719.55134078854</v>
       </c>
       <c r="AE8" t="n">
-        <v>70528.73707859991</v>
+        <v>84447.41301887005</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.501282701558274e-06</v>
+        <v>1.453624601635538e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.421875</v>
       </c>
       <c r="AH8" t="n">
-        <v>63797.57339953811</v>
+        <v>76387.87044305766</v>
       </c>
     </row>
   </sheetData>
@@ -20127,28 +20127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.28545207406163</v>
+        <v>53.42347004935982</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.96155338085537</v>
+        <v>73.09634859866719</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.04802968978574</v>
+        <v>66.12013567979638</v>
       </c>
       <c r="AD2" t="n">
-        <v>45285.45207406163</v>
+        <v>53423.47004935982</v>
       </c>
       <c r="AE2" t="n">
-        <v>61961.55338085537</v>
+        <v>73096.34859866719</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.545677943524227e-06</v>
+        <v>1.831732389071957e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.096788194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>56048.02968978573</v>
+        <v>66120.13567979638</v>
       </c>
     </row>
   </sheetData>
@@ -20424,28 +20424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.86762327565255</v>
+        <v>71.53877037123947</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.33581452065232</v>
+        <v>97.88250168969664</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.43218590677071</v>
+        <v>88.5407331074102</v>
       </c>
       <c r="AD2" t="n">
-        <v>52867.62327565255</v>
+        <v>71538.77037123947</v>
       </c>
       <c r="AE2" t="n">
-        <v>72335.81452065232</v>
+        <v>97882.50168969664</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.674617695790792e-06</v>
+        <v>1.413996533721006e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.955729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>65432.18590677072</v>
+        <v>88540.73310741021</v>
       </c>
     </row>
     <row r="3">
@@ -20530,28 +20530,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.64903596021458</v>
+        <v>53.94202858927326</v>
       </c>
       <c r="AB3" t="n">
-        <v>61.09078077719286</v>
+        <v>73.80586327016459</v>
       </c>
       <c r="AC3" t="n">
-        <v>55.26036240127947</v>
+        <v>66.7619352668564</v>
       </c>
       <c r="AD3" t="n">
-        <v>44649.03596021458</v>
+        <v>53942.02858927326</v>
       </c>
       <c r="AE3" t="n">
-        <v>61090.78077719286</v>
+        <v>73805.8632701646</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.255254712270305e-06</v>
+        <v>1.705218240256167e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.450086805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>55260.36240127948</v>
+        <v>66761.9352668564</v>
       </c>
     </row>
     <row r="4">
@@ -20636,28 +20636,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>44.33781864264691</v>
+        <v>53.6308112717056</v>
       </c>
       <c r="AB4" t="n">
-        <v>60.66495951335796</v>
+        <v>73.38004200632969</v>
       </c>
       <c r="AC4" t="n">
-        <v>54.87518092122094</v>
+        <v>66.37675378679785</v>
       </c>
       <c r="AD4" t="n">
-        <v>44337.81864264691</v>
+        <v>53630.81127170561</v>
       </c>
       <c r="AE4" t="n">
-        <v>60664.95951335796</v>
+        <v>73380.04200632969</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.323082894212596e-06</v>
+        <v>1.71771512517691e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.432725694444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>54875.18092122094</v>
+        <v>66376.75378679785</v>
       </c>
     </row>
   </sheetData>
@@ -20933,28 +20933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.11423362554397</v>
+        <v>92.37116990675629</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.0381200187684</v>
+        <v>126.3863097947799</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.49062224858537</v>
+        <v>114.3241777722993</v>
       </c>
       <c r="AD2" t="n">
-        <v>73114.23362554397</v>
+        <v>92371.16990675629</v>
       </c>
       <c r="AE2" t="n">
-        <v>100038.1200187684</v>
+        <v>126386.3097947799</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.598521492666563e-06</v>
+        <v>1.178777709789595e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.309461805555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>90490.62224858537</v>
+        <v>114324.1777722993</v>
       </c>
     </row>
     <row r="3">
@@ -21039,28 +21039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>50.70232069153797</v>
+        <v>60.50142578701184</v>
       </c>
       <c r="AB3" t="n">
-        <v>69.37315199866015</v>
+        <v>82.78071989628695</v>
       </c>
       <c r="AC3" t="n">
-        <v>62.75227573775356</v>
+        <v>74.88024417287487</v>
       </c>
       <c r="AD3" t="n">
-        <v>50702.32069153797</v>
+        <v>60501.42578701184</v>
       </c>
       <c r="AE3" t="n">
-        <v>69373.15199866015</v>
+        <v>82780.71989628696</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.379740936422506e-06</v>
+        <v>1.496979564383361e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.606336805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>62752.27573775357</v>
+        <v>74880.24417287487</v>
       </c>
     </row>
     <row r="4">
@@ -21145,28 +21145,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>47.07624864399011</v>
+        <v>56.70476153887177</v>
       </c>
       <c r="AB4" t="n">
-        <v>64.4118002521991</v>
+        <v>77.58595637497903</v>
       </c>
       <c r="AC4" t="n">
-        <v>58.26442843867227</v>
+        <v>70.18126159114254</v>
       </c>
       <c r="AD4" t="n">
-        <v>47076.2486439901</v>
+        <v>56704.76153887177</v>
       </c>
       <c r="AE4" t="n">
-        <v>64411.8002521991</v>
+        <v>77585.95637497904</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.994645016232279e-06</v>
+        <v>1.60682769077713e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.428385416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>58264.42843867227</v>
+        <v>70181.26159114254</v>
       </c>
     </row>
     <row r="5">
@@ -21251,28 +21251,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>46.7474925801353</v>
+        <v>56.37600547501698</v>
       </c>
       <c r="AB5" t="n">
-        <v>63.96198170193927</v>
+        <v>77.13613782471921</v>
       </c>
       <c r="AC5" t="n">
-        <v>57.8575399395248</v>
+        <v>69.77437309199506</v>
       </c>
       <c r="AD5" t="n">
-        <v>46747.4925801353</v>
+        <v>56376.00547501698</v>
       </c>
       <c r="AE5" t="n">
-        <v>63961.98170193926</v>
+        <v>77136.13782471922</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.079671026286159e-06</v>
+        <v>1.622016966968054e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.404513888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>57857.5399395248</v>
+        <v>69774.37309199506</v>
       </c>
     </row>
   </sheetData>
